--- a/Excel/auth_64/main/01/s08/cmn.xlsx
+++ b/Excel/auth_64/main/01/s08/cmn.xlsx
@@ -20,7 +20,7 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>TRADUÇÃO</t>
+    <t>TRADUCCIÓN</t>
   </si>
   <si>
     <t>Whoa!</t>
